--- a/generated_docs/WR_89708709_WeekEnding_062925.xlsx
+++ b/generated_docs/WR_89708709_WeekEnding_062925.xlsx
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 07/31/2025 08:47 AM</t>
+          <t>Report Generated On: 08/16/2025 12:47 AM</t>
         </is>
       </c>
     </row>

--- a/generated_docs/WR_89708709_WeekEnding_062925.xlsx
+++ b/generated_docs/WR_89708709_WeekEnding_062925.xlsx
@@ -539,7 +539,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:I25"/>
+  <dimension ref="A2:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 08/16/2025 12:47 AM</t>
+          <t>Report Generated On: 08/18/2025 09:47 PM</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>2219.58</v>
+        <v>0</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
       </c>
       <c r="G16" s="10" t="inlineStr"/>
       <c r="H16" s="11" t="n">
-        <v>858.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -799,7 +799,7 @@
       </c>
       <c r="G17" s="13" t="inlineStr"/>
       <c r="H17" s="14" t="n">
-        <v>631.14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -833,7 +833,7 @@
       </c>
       <c r="G18" s="10" t="inlineStr"/>
       <c r="H18" s="11" t="n">
-        <v>648.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -843,7 +843,7 @@
         </is>
       </c>
       <c r="H19" s="16" t="n">
-        <v>2138.42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -903,7 +903,7 @@
       </c>
       <c r="B24" s="9" t="inlineStr">
         <is>
-          <t>CNC-SNB-40</t>
+          <t>CNA-TR</t>
         </is>
       </c>
       <c r="C24" s="9" t="inlineStr">
@@ -913,7 +913,7 @@
       </c>
       <c r="D24" s="9" t="inlineStr">
         <is>
-          <t>CNC,Splice Non-Tension Bare,#1/0-#4/0</t>
+          <t>CNA,Transfer Conductor</t>
         </is>
       </c>
       <c r="E24" s="9" t="inlineStr">
@@ -922,21 +922,55 @@
         </is>
       </c>
       <c r="F24" s="10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G24" s="10" t="inlineStr"/>
       <c r="H24" s="11" t="n">
-        <v>81.16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="15" t="inlineStr">
+      <c r="A25" s="12" t="inlineStr">
+        <is>
+          <t>Point 01</t>
+        </is>
+      </c>
+      <c r="B25" s="12" t="inlineStr">
+        <is>
+          <t>CNC-SNB-40</t>
+        </is>
+      </c>
+      <c r="C25" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D25" s="12" t="inlineStr">
+        <is>
+          <t>CNC,Splice Non-Tension Bare,#1/0-#4/0</t>
+        </is>
+      </c>
+      <c r="E25" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F25" s="13" t="n">
+        <v>4</v>
+      </c>
+      <c r="G25" s="13" t="inlineStr"/>
+      <c r="H25" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H25" s="16" t="n">
-        <v>81.16</v>
+      <c r="H26" s="16" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -948,9 +982,9 @@
     <mergeCell ref="G13:I13"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A26:G26"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="G12:I12"/>
-    <mergeCell ref="A25:G25"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="A19:G19"/>
     <mergeCell ref="A22:H22"/>

--- a/generated_docs/WR_89708709_WeekEnding_062925.xlsx
+++ b/generated_docs/WR_89708709_WeekEnding_062925.xlsx
@@ -539,7 +539,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:I26"/>
+  <dimension ref="A2:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 08/18/2025 09:47 PM</t>
+          <t>Report Generated On: 08/26/2025 09:59 AM</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0</v>
+        <v>2219.58</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
@@ -643,11 +643,7 @@
           <t>Scope ID #:</t>
         </is>
       </c>
-      <c r="G10" s="6" t="inlineStr">
-        <is>
-          <t>R25P6</t>
-        </is>
-      </c>
+      <c r="G10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="F11" s="4" t="inlineStr">
@@ -765,7 +761,7 @@
       </c>
       <c r="G16" s="10" t="inlineStr"/>
       <c r="H16" s="11" t="n">
-        <v>0</v>
+        <v>858.75</v>
       </c>
     </row>
     <row r="17">
@@ -799,7 +795,7 @@
       </c>
       <c r="G17" s="13" t="inlineStr"/>
       <c r="H17" s="14" t="n">
-        <v>0</v>
+        <v>631.14</v>
       </c>
     </row>
     <row r="18">
@@ -833,7 +829,7 @@
       </c>
       <c r="G18" s="10" t="inlineStr"/>
       <c r="H18" s="11" t="n">
-        <v>0</v>
+        <v>648.53</v>
       </c>
     </row>
     <row r="19">
@@ -843,7 +839,7 @@
         </is>
       </c>
       <c r="H19" s="16" t="n">
-        <v>0</v>
+        <v>2138.42</v>
       </c>
     </row>
     <row r="22">
@@ -903,7 +899,7 @@
       </c>
       <c r="B24" s="9" t="inlineStr">
         <is>
-          <t>CNA-TR</t>
+          <t>CNC-SNB-40</t>
         </is>
       </c>
       <c r="C24" s="9" t="inlineStr">
@@ -913,7 +909,7 @@
       </c>
       <c r="D24" s="9" t="inlineStr">
         <is>
-          <t>CNA,Transfer Conductor</t>
+          <t>CNC,Splice Non-Tension Bare,#1/0-#4/0</t>
         </is>
       </c>
       <c r="E24" s="9" t="inlineStr">
@@ -922,55 +918,21 @@
         </is>
       </c>
       <c r="F24" s="10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G24" s="10" t="inlineStr"/>
       <c r="H24" s="11" t="n">
-        <v>0</v>
+        <v>81.16</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="12" t="inlineStr">
-        <is>
-          <t>Point 01</t>
-        </is>
-      </c>
-      <c r="B25" s="12" t="inlineStr">
-        <is>
-          <t>CNC-SNB-40</t>
-        </is>
-      </c>
-      <c r="C25" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D25" s="12" t="inlineStr">
-        <is>
-          <t>CNC,Splice Non-Tension Bare,#1/0-#4/0</t>
-        </is>
-      </c>
-      <c r="E25" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F25" s="13" t="n">
-        <v>4</v>
-      </c>
-      <c r="G25" s="13" t="inlineStr"/>
-      <c r="H25" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="15" t="inlineStr">
+      <c r="A25" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H26" s="16" t="n">
-        <v>0</v>
+      <c r="H25" s="16" t="n">
+        <v>81.16</v>
       </c>
     </row>
   </sheetData>
@@ -982,9 +944,9 @@
     <mergeCell ref="G13:I13"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A26:G26"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="G12:I12"/>
+    <mergeCell ref="A25:G25"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="A19:G19"/>
     <mergeCell ref="A22:H22"/>
